--- a/locations.xlsx
+++ b/locations.xlsx
@@ -15,7 +15,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="615">
+  <si>
+    <t>LocationID(ClusterID)</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Location Address</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
   <si>
     <t>1</t>
   </si>
@@ -26,7 +41,10 @@
     <t>116.3219087966272</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.01047750270499 Longitude :116.3219087966272. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Zi Jing Lu, Haidian Qu, Beijing Shi, China</t>
+  </si>
+  <si>
+    <t>route</t>
   </si>
   <si>
     <t>2</t>
@@ -38,7 +56,10 @@
     <t>116.36769980041524</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.909330863284005 Longitude :116.36769980041524. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Jing Ji Dao She Qu Qing Shao Nian Jiao Yu Gong Zuo Zhan, Xicheng Qu, Beijing Shi, China, 100032</t>
+  </si>
+  <si>
+    <t>premise</t>
   </si>
   <si>
     <t>3</t>
@@ -50,7 +71,7 @@
     <t>116.42028674996102</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.90259313570017 Longitude :116.42028674996102. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei Jing Shi Di Yi Er Wu Zhong Xue （ Xi Men ）, Dongcheng Qu, Beijing Shi, China, 100062</t>
   </si>
   <si>
     <t>4</t>
@@ -62,7 +83,10 @@
     <t>116.34769334023476</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.939612310745304 Longitude :116.34769334023476. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Xicheng, 西直门外大街</t>
+  </si>
+  <si>
+    <t>establishment,night_club,point_of_interest</t>
   </si>
   <si>
     <t>5</t>
@@ -74,7 +98,7 @@
     <t>116.47193564706762</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.927880717652265 Longitude :116.47193564706762. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, TuanJieHu, Chaoyang Qu, Beijing Shi, China, 100025</t>
   </si>
   <si>
     <t>6</t>
@@ -86,7 +110,7 @@
     <t>116.42243354428855</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.97041824111433 Longitude :116.42243354428855. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei Jing Hua Gong Da Xue Li Xue Yuan, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>7</t>
@@ -98,7 +122,10 @@
     <t>116.38817185393125</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99163222533794 Longitude :116.38817185393125. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing Shi, Chaoyang Qu, 北辰西桥北</t>
+  </si>
+  <si>
+    <t>bus_station,establishment,point_of_interest,transit_station</t>
   </si>
   <si>
     <t>8</t>
@@ -110,7 +137,7 @@
     <t>116.31307192148897</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.94990996723983 Longitude :116.31307192148897. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Feng Huang Xiang Yan, Haidian Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>9</t>
@@ -122,7 +149,7 @@
     <t>115.89480145298234</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.37690728196138 Longitude :115.89480145298234. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing Shi, Yanqing Qu, 北京人文大学康庄校区</t>
   </si>
   <si>
     <t>10</t>
@@ -134,7 +161,7 @@
     <t>116.48835118168842</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.86719661912549 Longitude :116.48835118168842. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 弘燕东路29路双龙小区站</t>
   </si>
   <si>
     <t>11</t>
@@ -146,7 +173,7 @@
     <t>116.35749317896979</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99950881748035 Longitude :116.35749317896979. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Haidian Qu, Beijing Shi, China, 100083</t>
   </si>
   <si>
     <t>12</t>
@@ -158,7 +185,10 @@
     <t>116.45565044512584</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.89158119010342 Longitude :116.45565044512584. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>1 Chuiyangliu Middle St, Chaoyang Qu, Beijing Shi, China</t>
+  </si>
+  <si>
+    <t>street_address</t>
   </si>
   <si>
     <t>13</t>
@@ -170,7 +200,7 @@
     <t>116.35236050413488</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.98505126636099 Longitude :116.35236050413488. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei Jing Hang Kong Hang Tian Da Xue Jiao Xue San Hao Lou, WuDaoKou, Haidian Qu, Beijing Shi, China, 100083</t>
   </si>
   <si>
     <t>14</t>
@@ -182,7 +212,10 @@
     <t>116.41623385153294</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.07196283858107 Longitude :116.41623385153294. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, 天通中苑F区华联BHG购物中心B1楼</t>
+  </si>
+  <si>
+    <t>establishment,point_of_interest</t>
   </si>
   <si>
     <t>15</t>
@@ -194,7 +227,7 @@
     <t>116.36849874736335</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.89726441342896 Longitude :116.36849874736335. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Dong Guan Hui Guan, Xicheng Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>16</t>
@@ -206,7 +239,7 @@
     <t>116.42000342109634</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.935881983744714 Longitude :116.42000342109634. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing Shi, Dongcheng Qu, Xinsi Hutong, 21号院 邮政编码: 100001</t>
   </si>
   <si>
     <t>17</t>
@@ -218,7 +251,7 @@
     <t>116.33731912425691</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.92641798964542 Longitude :116.33731912425691. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Xicheng, 百万庄南街</t>
   </si>
   <si>
     <t>18</t>
@@ -230,7 +263,7 @@
     <t>116.38582822200642</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.900071692373714 Longitude :116.38582822200642. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing Shi, Xicheng Qu, 和平门东 邮政编码: 100051</t>
   </si>
   <si>
     <t>19</t>
@@ -242,7 +275,7 @@
     <t>116.45601996893119</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.932850036896184 Longitude :116.45601996893119. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Zhong Yu Da Sha, Chaoyang Qu, Beijing Shi, China, 100001</t>
   </si>
   <si>
     <t>20</t>
@@ -254,7 +287,7 @@
     <t>116.44996299120162</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.986774126839016 Longitude :116.44996299120162. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing Shi, Chaoyang Qu, WangJing, N 4th Ring Rd E, 65号居然之家5号馆b1楼 邮政编码: 100096</t>
   </si>
   <si>
     <t>21</t>
@@ -266,7 +299,7 @@
     <t>116.34683690957678</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.86482588767793 Longitude :116.34683690957678. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei Jing Jian Xiu Gong Si, Fengtai Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>22</t>
@@ -278,7 +311,10 @@
     <t>116.38671196126862</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99867468284825 Longitude :116.38671196126862. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 北辰路</t>
+  </si>
+  <si>
+    <t>establishment,point_of_interest,premise</t>
   </si>
   <si>
     <t>23</t>
@@ -290,7 +326,7 @@
     <t>116.58739691704982</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.07822365434674 Longitude :116.58739691704982. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>S 12 Ji Chang Gao Su Ru Kou, Chaoyang Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>24</t>
@@ -302,7 +338,7 @@
     <t>116.25885309957735</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.892962323433764 Longitude :116.25885309957735. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Xiao Wa Yao Dong Li Nan Lu, Fengtai Qu, Beijing Shi, China, 100049</t>
   </si>
   <si>
     <t>25</t>
@@ -314,7 +350,10 @@
     <t>116.32990988869743</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.06972858132167 Longitude :116.32990988869743. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Changping, 昌平路</t>
+  </si>
+  <si>
+    <t>establishment,food,point_of_interest,restaurant</t>
   </si>
   <si>
     <t>26</t>
@@ -326,7 +365,10 @@
     <t>116.34369966917608</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.96718323535535 Longitude :116.34369966917608. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Haidian, 北三环学院路蓟门里小区10号楼</t>
+  </si>
+  <si>
+    <t>establishment,hospital,point_of_interest</t>
   </si>
   <si>
     <t>27</t>
@@ -338,7 +380,7 @@
     <t>116.49331661281916</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95399024212417 Longitude :116.49331661281916. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Zheng Yuan Gong Guan （ Dong Shan Shu Dian ）, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>28</t>
@@ -350,7 +392,7 @@
     <t>116.27552874945077</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.957161716760424 Longitude :116.27552874945077. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Xi Si Huan Bei Lu, Haidian Qu, Beijing Shi, China, 100195</t>
   </si>
   <si>
     <t>29</t>
@@ -362,7 +404,10 @@
     <t>116.4174361662185</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99601617955232 Longitude :116.4174361662185. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 北苑路168号中安盛业大厦</t>
+  </si>
+  <si>
+    <t>atm,establishment,finance,point_of_interest</t>
   </si>
   <si>
     <t>30</t>
@@ -374,7 +419,7 @@
     <t>116.41920905228343</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95086826309845 Longitude :116.41920905228343. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Yong He Jia Yuan （ Xi Men ）, Dongcheng Qu, Beijing Shi, China, 100007</t>
   </si>
   <si>
     <t>31</t>
@@ -386,7 +431,7 @@
     <t>116.40968262012684</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.966825152749735 Longitude :116.40968262012684. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Huan Qiu Mao Yi Zhong Xin C Zuo, AnDingMen, Dongcheng Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>32</t>
@@ -398,7 +443,7 @@
     <t>116.80179806543583</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95169217731282 Longitude :116.80179806543583. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Langfang Shi, Sanhe Shi, 防灾南门 邮政编码: 065201</t>
   </si>
   <si>
     <t>33</t>
@@ -410,7 +455,7 @@
     <t>116.4064544720206</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.90807262133108 Longitude :116.4064544720206. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Dongcheng, 南河沿大街</t>
   </si>
   <si>
     <t>34</t>
@@ -422,7 +467,7 @@
     <t>116.19852977651219</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.9928465099771 Longitude :116.19852977651219. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Feng Lin Lu, Haidian Qu, Beijing Shi, China, 100042</t>
   </si>
   <si>
     <t>35</t>
@@ -434,7 +479,7 @@
     <t>116.37917153618913</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.999994056659915 Longitude :116.37917153618913. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Nan Sha Tan 49 Hao Lou, Chaoyang Qu, Beijing Shi, China, 100101</t>
   </si>
   <si>
     <t>36</t>
@@ -446,7 +491,7 @@
     <t>116.30573417246515</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.08806958982865 Longitude :116.30573417246515. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Changping Qu, Beijing Shi, China, 102202</t>
   </si>
   <si>
     <t>37</t>
@@ -458,7 +503,7 @@
     <t>116.40405393920977</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.0578572068093 Longitude :116.40405393920977. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Changping, 中东路</t>
   </si>
   <si>
     <t>38</t>
@@ -470,7 +515,7 @@
     <t>116.41098730052235</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.0305390204561 Longitude :116.41098730052235. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Wan Ke Xing Yuan She Qu Ju Wei Hui, Chaoyang Qu, Beijing Shi, China, 100107</t>
   </si>
   <si>
     <t>39</t>
@@ -482,7 +527,7 @@
     <t>116.34126686505543</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.01631533491613 Longitude :116.34126686505543. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Ba Jia Jia Yuan, Haidian Qu, Beijing Shi, China, 100085</t>
   </si>
   <si>
     <t>40</t>
@@ -494,7 +539,7 @@
     <t>116.45315727417355</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.904564650029194 Longitude :116.45315727417355. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Jian Wai S O H O Xi Qu 15 Hao Lou, JianWai DaJie, Chaoyang Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>41</t>
@@ -506,7 +551,7 @@
     <t>116.3274504805279</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.076368109789485 Longitude :116.3274504805279. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Changping Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>42</t>
@@ -518,7 +563,7 @@
     <t>116.31371456908676</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.06971963747873 Longitude :116.31371456908676. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Long Yu Dong Yi Lu, Changping Qu, Beijing Shi, China, 102202</t>
   </si>
   <si>
     <t>43</t>
@@ -530,7 +575,7 @@
     <t>116.45483732102008</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.911479161864776 Longitude :116.45483732102008. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Guang Hua Li 15 Hao Lou, GuoMao, Chaoyang Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>44</t>
@@ -542,7 +587,7 @@
     <t>116.44183768451842</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.97196979803759 Longitude :116.44183768451842. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Xi Ba He Lu, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>45</t>
@@ -554,7 +599,7 @@
     <t>116.47160752271779</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.90784792167409 Longitude :116.47160752271779. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 朝阳建国路甲92号（邮编:100022） 邮政编码: 100022</t>
   </si>
   <si>
     <t>46</t>
@@ -566,7 +611,7 @@
     <t>116.31261125917955</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.89542153911125 Longitude :116.31261125917955. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>130 Lianhuachi E Rd, Haidian Qu, Beijing Shi, China, 100055</t>
   </si>
   <si>
     <t>47</t>
@@ -578,7 +623,7 @@
     <t>116.42964014466597</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.976333517792874 Longitude :116.42964014466597. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Chaoyang Qu, Beijing Shi, China, 100029</t>
   </si>
   <si>
     <t>48</t>
@@ -590,7 +635,7 @@
     <t>116.60858791277545</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.05387968566689 Longitude :116.60858791277545. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Yi Jing Lu, Shunyi Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>49</t>
@@ -602,7 +647,7 @@
     <t>116.29757481418584</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.76284779683517 Longitude :116.29757481418584. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Jin Xing Lu, Daxing Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>50</t>
@@ -614,7 +659,7 @@
     <t>116.56593842769928</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.06429731822 Longitude :116.56593842769928. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Zhong Guo Guo Ji Hang Kong Gong Si （ Hua Yuan Xi Jie ）, Shunyi Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>51</t>
@@ -626,7 +671,7 @@
     <t>116.35141623937673</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.90752365335662 Longitude :116.35141623937673. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Xicheng, 北京苏州胡同甲94号地下通道</t>
   </si>
   <si>
     <t>52</t>
@@ -638,7 +683,7 @@
     <t>116.36291047117786</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.974905914985094 Longitude :116.36291047117786. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Hua Yuan Lu 5 Hao Yuan 9, Haidian Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>53</t>
@@ -650,7 +695,7 @@
     <t>116.45599132181498</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.93826763066173 Longitude :116.45599132181498. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>16 Sanlitun Rd, Chaoyang Qu, Beijing Shi, China, 100001</t>
   </si>
   <si>
     <t>54</t>
@@ -662,7 +707,7 @@
     <t>116.46326453716145</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99113925861359 Longitude :116.46326453716145. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>33 Guangshun S St, WangJing, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>55</t>
@@ -674,7 +719,7 @@
     <t>116.32211446607438</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.936457509980606 Longitude :116.32211446607438. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, ZiZhu Qiao, Haidian Qu, Beijing Shi, China, 100044</t>
   </si>
   <si>
     <t>56</t>
@@ -686,7 +731,7 @@
     <t>116.35639659101075</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95784557307057 Longitude :116.35639659101075. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Haidian, 学院南路34号中商信大厦</t>
   </si>
   <si>
     <t>57</t>
@@ -698,7 +743,7 @@
     <t>116.2575937818115</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.85953481030522 Longitude :116.2575937818115. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Wu Li Dian Lu, Fengtai Qu, Beijing Shi, China, 100166</t>
   </si>
   <si>
     <t>58</t>
@@ -710,7 +755,7 @@
     <t>116.1283348649941</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.1671657777092 Longitude :116.1283348649941. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Wen Nan Lu, Changping Qu, Beijing Shi, China, 102202</t>
   </si>
   <si>
     <t>59</t>
@@ -722,7 +767,7 @@
     <t>116.34341511297626</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.00254689946407 Longitude :116.34341511297626. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei Jing Lin Ye Da Xue Sheng Wu Ke Xue Yu Ji Shu Xue Yuan, Haidian Qu, Beijing Shi, China, 100085</t>
   </si>
   <si>
     <t>60</t>
@@ -734,7 +779,7 @@
     <t>116.41499212113978</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.9870505119328 Longitude :116.41499212113978. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>114 N 4th Ring Rd E, Chaoyang Qu, Beijing Shi, China, 100029</t>
   </si>
   <si>
     <t>61</t>
@@ -746,7 +791,7 @@
     <t>116.34569404466707</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.027504341116085 Longitude :116.34569404466707. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>16 Qinghe 3rd St, Haidian Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>62</t>
@@ -758,7 +803,7 @@
     <t>116.40987820566554</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.949177916067214 Longitude :116.40987820566554. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Andingmen, AnDingMen, Dongcheng Qu, China, 100011</t>
   </si>
   <si>
     <t>63</t>
@@ -770,9 +815,6 @@
     <t>116.40996676009823</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.98744336432383 Longitude :116.40996676009823. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -782,7 +824,10 @@
     <t>116.32898375250628</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.9571247475828 Longitude :116.32898375250628. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Haidian, 学院南路76号</t>
+  </si>
+  <si>
+    <t>cafe,establishment,food,point_of_interest,store</t>
   </si>
   <si>
     <t>65</t>
@@ -794,7 +839,7 @@
     <t>116.45705137142438</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.975854411294144 Longitude :116.45705137142438. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>66</t>
@@ -806,7 +851,7 @@
     <t>116.41422173427641</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.97999941651345 Longitude :116.41422173427641. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 惠新北街小关北里218号</t>
   </si>
   <si>
     <t>67</t>
@@ -818,7 +863,7 @@
     <t>116.483874636674</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.972470059622204 Longitude :116.483874636674. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Fang Yuan Nan Jie, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>68</t>
@@ -830,7 +875,7 @@
     <t>116.40668571254832</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.876909104995796 Longitude :116.40668571254832. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Dongcheng Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>69</t>
@@ -842,7 +887,7 @@
     <t>116.34433791342914</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.905605185390584 Longitude :116.34433791342914. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Zhen Wu Miao Er Li 9 Hao Lou, Xicheng Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>70</t>
@@ -854,7 +899,7 @@
     <t>116.3079827462214</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.67296453730891 Longitude :116.3079827462214. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Hua Tuo Lu, Daxing Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>71</t>
@@ -866,7 +911,7 @@
     <t>124.916954732167</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :46.62117540270253 Longitude :124.916954732167. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>53 Ai Guo Lu, Ranghulu Qu, Daqing Shi, Heilongjiang Sheng, China, 163453</t>
   </si>
   <si>
     <t>72</t>
@@ -878,7 +923,7 @@
     <t>116.40749330860491</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.07315544049779 Longitude :116.40749330860491. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Tai Ping Zhuang Zhong Er Jie, Changping Qu, Beijing Shi, China, 102202</t>
   </si>
   <si>
     <t>73</t>
@@ -890,7 +935,7 @@
     <t>116.43032602552749</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.934693082721914 Longitude :116.43032602552749. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Hai Yun Cang Nan Li Yi Qu 2 Hao Lou, Dongcheng Qu, Beijing Shi, China, 100001</t>
   </si>
   <si>
     <t>74</t>
@@ -902,7 +947,7 @@
     <t>116.3407039016235</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.89929479701072 Longitude :116.3407039016235. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bai Yun Lu 7 Hao Yuan 2, Xicheng Qu, Beijing Shi, China, 100055</t>
   </si>
   <si>
     <t>75</t>
@@ -914,7 +959,7 @@
     <t>116.34795365793497</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.92296993369096 Longitude :116.34795365793497. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Wai Jing Mao Da Sha （ Fu Cheng Men Wai Da Jie Fu Lu ）, Xicheng Qu, Beijing Shi, China, 100037</t>
   </si>
   <si>
     <t>76</t>
@@ -926,7 +971,7 @@
     <t>116.38600784020382</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.865256698605556 Longitude :116.38600784020382. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei Jing Shi Mian Ma Gong Si, Fengtai Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>77</t>
@@ -938,7 +983,7 @@
     <t>116.68216621164179</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.36588705578429 Longitude :116.68216621164179. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing Shi, Huairou Qu, 金麦田</t>
   </si>
   <si>
     <t>78</t>
@@ -950,7 +995,7 @@
     <t>116.3730151389267</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.862510595663544 Longitude :116.3730151389267. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Kai Yang Li She Qu Bian Min Cai Shi Chang, Fengtai Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>79</t>
@@ -962,7 +1007,7 @@
     <t>116.78324317628781</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.94693511862352 Longitude :116.78324317628781. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, 燕郊海洋局北门西侧</t>
   </si>
   <si>
     <t>80</t>
@@ -974,7 +1019,7 @@
     <t>116.40500157387766</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.06590515499108 Longitude :116.40500157387766. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Zhong Tan Cun Lu, Changping Qu, Beijing Shi, China, 102202</t>
   </si>
   <si>
     <t>81</t>
@@ -986,7 +1031,7 @@
     <t>116.4329166716949</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.02764043136816 Longitude :116.4329166716949. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Hong Jun Ying Lu, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>82</t>
@@ -998,7 +1043,7 @@
     <t>116.33609581608722</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.922253859088904 Longitude :116.33609581608722. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Fu Cheng Men Wai Da Jie 42 Hao Yuan （ Dong 2 Men ）, Xicheng Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>83</t>
@@ -1010,7 +1055,7 @@
     <t>125.29547073848539</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :43.892066381663 Longitude :125.29547073848539. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Xin Xing Yu Jian Zhu She Ji Yan Jiu Yuan, Lvyuan Qu, Changchun Shi, Jilin Sheng, China, 130062</t>
   </si>
   <si>
     <t>84</t>
@@ -1022,7 +1067,7 @@
     <t>116.36176455360253</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95123024237318 Longitude :116.36176455360253. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei Tai Ping Zhuang Jie Dao Ban Shi Chu Ban Shi Da Ting, BeiTaiPingZhuang, Haidian Qu, Beijing Shi, China, 100082</t>
   </si>
   <si>
     <t>85</t>
@@ -1034,7 +1079,7 @@
     <t>116.3996481908778</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.96824419130636 Longitude :116.3996481908778. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>An Hua Xi Li Yi Qu 3 Hao Lou, AnDingMen, Chaoyang Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>86</t>
@@ -1046,7 +1091,7 @@
     <t>116.3359092398124</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.93647062119797 Longitude :116.3359092398124. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>3 Wenxing St, DongWuYuan, Xicheng Qu, Beijing Shi, China, 100044</t>
   </si>
   <si>
     <t>87</t>
@@ -1058,7 +1103,7 @@
     <t>116.1137343250234</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.08897725596528 Longitude :116.1137343250234. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei An He Bei Lu, Haidian Qu, Beijing Shi, China, 100042</t>
   </si>
   <si>
     <t>88</t>
@@ -1070,7 +1115,7 @@
     <t>116.16685588580633</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.89442798323655 Longitude :116.16685588580633. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>1 Shuinichang Houshen Rd, Shijingshan Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>89</t>
@@ -1082,7 +1127,7 @@
     <t>116.29714161581565</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.01350015920522 Longitude :116.29714161581565. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Yu Yue Ying Fei, Haidian Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>90</t>
@@ -1094,7 +1139,7 @@
     <t>116.26794498584177</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.9061179899705 Longitude :116.26794498584177. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Xiang He Rou Bing （ Zao Lin Lu ）, Haidian Qu, Beijing Shi, China, 100039</t>
   </si>
   <si>
     <t>91</t>
@@ -1106,7 +1151,7 @@
     <t>116.44696914164457</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.93252050943992 Longitude :116.44696914164457. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 工体北路沸腾鱼乡对面（春秀路口）</t>
   </si>
   <si>
     <t>92</t>
@@ -1118,7 +1163,7 @@
     <t>110.77198016736538</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :37.41663116405495 Longitude :110.77198016736538. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>307 Guo Dao, Liulin Xian, Lvliang Shi, Shanxi Sheng, China</t>
   </si>
   <si>
     <t>93</t>
@@ -1130,7 +1175,7 @@
     <t>116.41606342428727</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95978433774604 Longitude :116.41606342428727. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Dongcheng, 兴化南里1号楼</t>
   </si>
   <si>
     <t>94</t>
@@ -1142,7 +1187,7 @@
     <t>116.40071484664401</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95668780519131 Longitude :116.40071484664401. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>17号-19 An De Li Bei Jie, AnDingMen, Dongcheng Qu, Beijing Shi, China, 100009</t>
   </si>
   <si>
     <t>95</t>
@@ -1154,7 +1199,7 @@
     <t>116.29276451073636</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.0224547137216 Longitude :116.29276451073636. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Haidian, 农大南路</t>
   </si>
   <si>
     <t>96</t>
@@ -1166,7 +1211,7 @@
     <t>116.40783691343863</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.056335425410715 Longitude :116.40783691343863. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, 立水桥地铁站13号线A口出向西600米北京北小区7A后小院</t>
   </si>
   <si>
     <t>97</t>
@@ -1178,7 +1223,7 @@
     <t>116.38139544592154</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.98603960757696 Longitude :116.38139544592154. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 深蓝华亭</t>
   </si>
   <si>
     <t>98</t>
@@ -1190,7 +1235,7 @@
     <t>116.38645580875642</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.934342728825726 Longitude :116.38645580875642. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Xicheng, 龙头井街</t>
   </si>
   <si>
     <t>99</t>
@@ -1202,7 +1247,7 @@
     <t>120.17542176233805</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :30.276302206285997 Longitude :120.17542176233805. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Xiacheng Qu, Hangzhou Shi, Zhejiang Sheng, China, 310003</t>
   </si>
   <si>
     <t>100</t>
@@ -1214,7 +1259,7 @@
     <t>116.39435324387404</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.96928171788401 Longitude :116.39435324387404. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 安贞路安贞西里5区4号华联商厦2层</t>
   </si>
   <si>
     <t>101</t>
@@ -1226,7 +1271,7 @@
     <t>116.4005187509501</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.05236131609237 Longitude :116.4005187509501. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, 地铁立水桥站旁</t>
   </si>
   <si>
     <t>102</t>
@@ -1238,7 +1283,7 @@
     <t>116.46275803969156</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.00925600181282 Longitude :116.46275803969156. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 望京利泽西街望馨商业中心2楼（家乐福西）</t>
   </si>
   <si>
     <t>103</t>
@@ -1250,7 +1295,7 @@
     <t>116.53590888218251</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.14962109970315 Longitude :116.53590888218251. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>104 Limin St, Shunyi Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>104</t>
@@ -1262,7 +1307,10 @@
     <t>116.29174133661591</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99675279606035 Longitude :116.29174133661591. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Haidian, 西苑市场前排9号</t>
+  </si>
+  <si>
+    <t>establishment,lodging,point_of_interest</t>
   </si>
   <si>
     <t>105</t>
@@ -1274,7 +1322,7 @@
     <t>116.26747843944202</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99954167184654 Longitude :116.26747843944202. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Chuan Wu, Haidian Qu, Beijing Shi, China, 100000</t>
   </si>
   <si>
     <t>106</t>
@@ -1286,7 +1334,10 @@
     <t>116.40408803461273</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.97723080691322 Longitude :116.40408803461273. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 北土城东路</t>
+  </si>
+  <si>
+    <t>car_repair,establishment,point_of_interest</t>
   </si>
   <si>
     <t>107</t>
@@ -1298,7 +1349,7 @@
     <t>116.10120453868247</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.967219662896056 Longitude :116.10120453868247. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Mentougou, 石门路三家店西街,三家店村路北</t>
   </si>
   <si>
     <t>108</t>
@@ -1310,7 +1361,7 @@
     <t>116.32475503291734</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.03911286247974 Longitude :116.32475503291734. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>An Ning Zhuang Xi Lu, Haidian Qu, Beijing Shi, China, 100085</t>
   </si>
   <si>
     <t>109</t>
@@ -1322,9 +1373,6 @@
     <t>116.50736205599947</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.00239339726333 Longitude :116.50736205599947. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -1334,7 +1382,7 @@
     <t>116.47059216050789</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.94828557510994 Longitude :116.47059216050789. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Zao Ying Bei Li 27 Hao Lou, Chaoyang Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>111</t>
@@ -1346,7 +1394,7 @@
     <t>116.30691909724706</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.027295970121614 Longitude :116.30691909724706. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Haidian Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>112</t>
@@ -1358,7 +1406,7 @@
     <t>108.33324290091937</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :22.81381716979139 Longitude :108.33324290091937. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Guang Xi Min Zu Yi Shu Gong, Qingxiu Qu, Nanning Shi, Guangxi Zhuangzuzizhiqu, China, 530022</t>
   </si>
   <si>
     <t>113</t>
@@ -1370,7 +1418,10 @@
     <t>116.35130866910825</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.0225066446302 Longitude :116.35130866910825. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Haidian, 上清桥</t>
+  </si>
+  <si>
+    <t>establishment,point_of_interest,store</t>
   </si>
   <si>
     <t>114</t>
@@ -1382,9 +1433,6 @@
     <t>116.30657938278814</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.01408882449975 Longitude :116.30657938278814. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
-  </si>
-  <si>
     <t>115</t>
   </si>
   <si>
@@ -1394,7 +1442,7 @@
     <t>116.45094210303515</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99277172279256 Longitude :116.45094210303515. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, WangJing, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>116</t>
@@ -1406,7 +1454,7 @@
     <t>116.39152345038953</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.906215952693394 Longitude :116.39152345038953. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Ren Da Hui Tang Xi Lu, Xicheng Qu, Beijing Shi, China, 100031</t>
   </si>
   <si>
     <t>117</t>
@@ -1418,7 +1466,7 @@
     <t>116.38438735524608</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.905252838726156 Longitude :116.38438735524608. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>17 Dongshuan Hutong, Xicheng Qu, Beijing Shi, China, 100031</t>
   </si>
   <si>
     <t>118</t>
@@ -1430,7 +1478,7 @@
     <t>116.45769888726191</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.94886388407164 Longitude :116.45769888726191. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Li Ji Gui Lin Mi Fen （ Xin Yuan Nan Lu ）, Chaoyang Qu, Beijing Shi, China, 100001</t>
   </si>
   <si>
     <t>119</t>
@@ -1442,7 +1490,7 @@
     <t>116.48961116500827</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.9836634177916 Longitude :116.48961116500827. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Jiu Xian Qiao Lu 7 Hao Yuan （ Dong Men ）, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>120</t>
@@ -1454,7 +1502,7 @@
     <t>116.39105666969677</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.89521701946394 Longitude :116.39105666969677. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Fu Run Jiu Dian （ Qian Men Dian ）, Xicheng Qu, Beijing Shi, China, 100031</t>
   </si>
   <si>
     <t>121</t>
@@ -1466,7 +1514,7 @@
     <t>116.172490960862</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.98989128460693 Longitude :116.172490960862. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Haidian Qu, Beijing Shi, China, 100042</t>
   </si>
   <si>
     <t>122</t>
@@ -1478,7 +1526,7 @@
     <t>116.47558925741288</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.987842714154816 Longitude :116.47558925741288. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 望京路4号</t>
   </si>
   <si>
     <t>123</t>
@@ -1490,7 +1538,7 @@
     <t>116.25931917596253</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.88393953357618 Longitude :116.25931917596253. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Fengtai Qu, Beijing Shi, China, 100166</t>
   </si>
   <si>
     <t>124</t>
@@ -1502,7 +1550,7 @@
     <t>116.41192950313363</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.96043468502294 Longitude :116.41192950313363. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Dongcheng, Hepingli N St, 和平里九区甲1</t>
   </si>
   <si>
     <t>125</t>
@@ -1514,7 +1562,7 @@
     <t>116.41185771258287</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.97578223124116 Longitude :116.41185771258287. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Jian An Dong Lu, Chaoyang Qu, Beijing Shi, China, 100029</t>
   </si>
   <si>
     <t>126</t>
@@ -1526,7 +1574,7 @@
     <t>116.28204291808218</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95692410527851 Longitude :116.28204291808218. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, 远大西路28号</t>
   </si>
   <si>
     <t>127</t>
@@ -1538,7 +1586,7 @@
     <t>-122.14209897401352</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :47.6420350568574 Longitude :-122.14209897401352. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Microsoft Building 99, 14820 NE 36th St, Redmond, WA 98052, USA</t>
   </si>
   <si>
     <t>128</t>
@@ -1550,7 +1598,7 @@
     <t>119.48362020239055</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.81265867965071 Longitude :119.48362020239055. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Zhong Hai Tan Lu, Beidaihe Qu, Qinhuangdao Shi, Hebei Sheng, China, 066100</t>
   </si>
   <si>
     <t>129</t>
@@ -1562,7 +1610,7 @@
     <t>116.42581960085985</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.91051684403522 Longitude :116.42581960085985. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Chang An Tai He, DongDan, Dongcheng Qu, Beijing Shi, China, 100001</t>
   </si>
   <si>
     <t>130</t>
@@ -1574,7 +1622,7 @@
     <t>116.36632308692866</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.94627774881351 Longitude :116.36632308692866. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Quan Guo Gong Shang Lian Ban Gong Lou, Xicheng Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>131</t>
@@ -1586,7 +1634,7 @@
     <t>116.24581138324257</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.906835938417856 Longitude :116.24581138324257. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Shijingshan, 石景山路电子工业部四○二医院对面路南</t>
   </si>
   <si>
     <t>132</t>
@@ -1598,7 +1646,7 @@
     <t>116.3097523990737</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.9964686137253 Longitude :116.3097523990737. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Jing Chun Lu, Haidian Qu, Beijing Shi, China, 100871</t>
   </si>
   <si>
     <t>133</t>
@@ -1610,7 +1658,7 @@
     <t>116.3379059424423</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99905786949261 Longitude :116.3379059424423. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Haidian, 双清路</t>
   </si>
   <si>
     <t>134</t>
@@ -1622,7 +1670,7 @@
     <t>116.43746939961926</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.95934839372701 Longitude :116.43746939961926. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>6 Liufang N St, Chaoyang Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>135</t>
@@ -1634,9 +1682,6 @@
     <t>116.4837506507871</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.96703743011555 Longitude :116.4837506507871. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
-  </si>
-  <si>
     <t>136</t>
   </si>
   <si>
@@ -1646,9 +1691,6 @@
     <t>116.41447978483154</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.882879357230365 Longitude :116.41447978483154. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
-  </si>
-  <si>
     <t>137</t>
   </si>
   <si>
@@ -1658,7 +1700,7 @@
     <t>116.42979175573733</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.96834347745012 Longitude :116.42979175573733. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 和平街北口北三环东路甲12号基尔特中心5001室</t>
   </si>
   <si>
     <t>138</t>
@@ -1670,7 +1712,7 @@
     <t>116.25559982398063</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.98099667881728 Longitude :116.25559982398063. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Bei Wu Cun Lu, Haidian Qu, Beijing Shi, China, 100000</t>
   </si>
   <si>
     <t>139</t>
@@ -1682,7 +1724,10 @@
     <t>116.42700503415085</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.04553114122283 Longitude :116.42700503415085. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Chaoyang, 秋实东街绣菊园</t>
+  </si>
+  <si>
+    <t>establishment,local_government_office,point_of_interest</t>
   </si>
   <si>
     <t>140</t>
@@ -1694,7 +1739,10 @@
     <t>117.20430462917099</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.13650835343203 Longitude :117.20430462917099. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Tianjin, Hebei, 建国道17号</t>
+  </si>
+  <si>
+    <t>establishment,point_of_interest,police</t>
   </si>
   <si>
     <t>141</t>
@@ -1706,7 +1754,7 @@
     <t>116.32355893132244</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.690834667627065 Longitude :116.32355893132244. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing Shi, Daxing Qu, 天河西路</t>
   </si>
   <si>
     <t>142</t>
@@ -1718,7 +1766,7 @@
     <t>116.3462889278268</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.03827525561061 Longitude :116.3462889278268. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Beijing, Haidian, 清河桥北30米</t>
   </si>
   <si>
     <t>143</t>
@@ -1730,7 +1778,7 @@
     <t>117.24972674701087</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :31.841121218981463 Longitude :117.24972674701087. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>China, Anhui, Hefei, Shushan, 黄山路</t>
   </si>
   <si>
     <t>144</t>
@@ -1742,7 +1790,7 @@
     <t>116.35124947792701</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.03121481963354 Longitude :116.35124947792701. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Yong Tai Zhuang Xi Lu, Haidian Qu, Beijing Shi, China, 100085</t>
   </si>
   <si>
     <t>145</t>
@@ -1754,7 +1802,7 @@
     <t>116.104922937044</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.08807594552411 Longitude :116.104922937044. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Qi Fu Lu, Haidian Qu, Beijing Shi, China, 100042</t>
   </si>
   <si>
     <t>146</t>
@@ -1766,7 +1814,7 @@
     <t>116.45581931632039</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.883087427693965 Longitude :116.45581931632039. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Xing Pai Tai Qiu Hui Guan （ Chao Yang Qu Fang Wu Guan Li Ju Di Yi Guan Li Suo Xi Bei ）, Chaoyang Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>147</t>
@@ -1778,9 +1826,6 @@
     <t>116.40678499386468</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.881282520912194 Longitude :116.40678499386468. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
-  </si>
-  <si>
     <t>148</t>
   </si>
   <si>
@@ -1790,7 +1835,7 @@
     <t>116.3606263541839</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :40.03027985008966 Longitude :116.3606263541839. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Long Gang Lu, Haidian Qu, Beijing Shi, China, 100096</t>
   </si>
   <si>
     <t>149</t>
@@ -1802,7 +1847,7 @@
     <t>116.31201005867993</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.92130781719622 Longitude :116.31201005867993. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Hua Tian Da Jiu Dian （ Diao Yu Tai Shan Zhuang Dian ）, Haidian Qu, Beijing Shi, China</t>
   </si>
   <si>
     <t>150</t>
@@ -1814,7 +1859,7 @@
     <t>116.30965081034114</t>
   </si>
   <si>
-    <t>Error fetching location for Latitude :39.99450875088725 Longitude :116.30965081034114. Error Message :You have exceeded your daily request quota for this API. If you did not set a custom daily request quota, verify your project has an active billing account: http://g.co/dev/maps-no-account</t>
+    <t>Unnamed Road, Haidian Qu, Beijing Shi, China, 100871</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2158,7 +2203,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2171,2091 +2216,2558 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>239</v>
+      </c>
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" t="s">
+        <v>282</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" t="s">
+        <v>288</v>
+      </c>
+      <c r="C70" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" t="s">
+        <v>292</v>
+      </c>
+      <c r="C71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>299</v>
+      </c>
+      <c r="B73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>303</v>
+      </c>
+      <c r="B74" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" t="s">
+        <v>306</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75" t="s">
+        <v>309</v>
+      </c>
+      <c r="D75" t="s">
+        <v>310</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" t="s">
+        <v>314</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>315</v>
+      </c>
+      <c r="B77" t="s">
+        <v>316</v>
+      </c>
+      <c r="C77" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" t="s">
+        <v>318</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80" t="s">
+        <v>330</v>
+      </c>
+      <c r="E80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>331</v>
+      </c>
+      <c r="B81" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>333</v>
+      </c>
+      <c r="D81" t="s">
+        <v>334</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" t="s">
+        <v>338</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" t="s">
+        <v>344</v>
+      </c>
+      <c r="C84" t="s">
+        <v>345</v>
+      </c>
+      <c r="D84" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>349</v>
+      </c>
+      <c r="D85" t="s">
+        <v>350</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>351</v>
+      </c>
+      <c r="B86" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" t="s">
+        <v>353</v>
+      </c>
+      <c r="D86" t="s">
+        <v>354</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87" t="s">
+        <v>358</v>
+      </c>
+      <c r="E87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>359</v>
+      </c>
+      <c r="B88" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" t="s">
+        <v>362</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" t="s">
+        <v>364</v>
+      </c>
+      <c r="C89" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" t="s">
+        <v>366</v>
+      </c>
+      <c r="E89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" t="s">
+        <v>368</v>
+      </c>
+      <c r="C90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D90" t="s">
+        <v>370</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" t="s">
+        <v>372</v>
+      </c>
+      <c r="C91" t="s">
+        <v>373</v>
+      </c>
+      <c r="D91" t="s">
+        <v>374</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>375</v>
+      </c>
+      <c r="B92" t="s">
+        <v>376</v>
+      </c>
+      <c r="C92" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" t="s">
+        <v>378</v>
+      </c>
+      <c r="E92" t="s">
         <v>112</v>
       </c>
-      <c r="B29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>212</v>
-      </c>
-      <c r="B54" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" t="s">
-        <v>217</v>
-      </c>
-      <c r="C55" t="s">
-        <v>218</v>
-      </c>
-      <c r="D55" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>220</v>
-      </c>
-      <c r="B56" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>224</v>
-      </c>
-      <c r="B57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" t="s">
-        <v>234</v>
-      </c>
-      <c r="D59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>236</v>
-      </c>
-      <c r="B60" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" t="s">
-        <v>238</v>
-      </c>
-      <c r="D60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>240</v>
-      </c>
-      <c r="B61" t="s">
-        <v>241</v>
-      </c>
-      <c r="C61" t="s">
-        <v>242</v>
-      </c>
-      <c r="D61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>244</v>
-      </c>
-      <c r="B62" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>248</v>
-      </c>
-      <c r="B63" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" t="s">
-        <v>253</v>
-      </c>
-      <c r="C64" t="s">
-        <v>254</v>
-      </c>
-      <c r="D64" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>256</v>
-      </c>
-      <c r="B65" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" t="s">
-        <v>258</v>
-      </c>
-      <c r="D65" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>260</v>
-      </c>
-      <c r="B66" t="s">
-        <v>261</v>
-      </c>
-      <c r="C66" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>264</v>
-      </c>
-      <c r="B67" t="s">
-        <v>265</v>
-      </c>
-      <c r="C67" t="s">
-        <v>266</v>
-      </c>
-      <c r="D67" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" t="s">
-        <v>269</v>
-      </c>
-      <c r="C68" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>272</v>
-      </c>
-      <c r="B69" t="s">
-        <v>273</v>
-      </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>379</v>
+      </c>
+      <c r="B93" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93" t="s">
+        <v>382</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>383</v>
+      </c>
+      <c r="B94" t="s">
+        <v>384</v>
+      </c>
+      <c r="C94" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>387</v>
+      </c>
+      <c r="B95" t="s">
+        <v>388</v>
+      </c>
+      <c r="C95" t="s">
+        <v>389</v>
+      </c>
+      <c r="D95" t="s">
+        <v>390</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>391</v>
+      </c>
+      <c r="B96" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" t="s">
+        <v>393</v>
+      </c>
+      <c r="D96" t="s">
+        <v>394</v>
+      </c>
+      <c r="E96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>395</v>
+      </c>
+      <c r="B97" t="s">
+        <v>396</v>
+      </c>
+      <c r="C97" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" t="s">
+        <v>398</v>
+      </c>
+      <c r="E97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>399</v>
+      </c>
+      <c r="B98" t="s">
+        <v>400</v>
+      </c>
+      <c r="C98" t="s">
+        <v>401</v>
+      </c>
+      <c r="D98" t="s">
+        <v>402</v>
+      </c>
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>403</v>
+      </c>
+      <c r="B99" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" t="s">
+        <v>405</v>
+      </c>
+      <c r="D99" t="s">
+        <v>406</v>
+      </c>
+      <c r="E99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100" t="s">
+        <v>408</v>
+      </c>
+      <c r="C100" t="s">
+        <v>409</v>
+      </c>
+      <c r="D100" t="s">
+        <v>410</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101" t="s">
+        <v>412</v>
+      </c>
+      <c r="C101" t="s">
+        <v>413</v>
+      </c>
+      <c r="D101" t="s">
+        <v>414</v>
+      </c>
+      <c r="E101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>415</v>
+      </c>
+      <c r="B102" t="s">
+        <v>416</v>
+      </c>
+      <c r="C102" t="s">
+        <v>417</v>
+      </c>
+      <c r="D102" t="s">
+        <v>418</v>
+      </c>
+      <c r="E102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>419</v>
+      </c>
+      <c r="B103" t="s">
+        <v>420</v>
+      </c>
+      <c r="C103" t="s">
+        <v>421</v>
+      </c>
+      <c r="D103" t="s">
+        <v>422</v>
+      </c>
+      <c r="E103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>423</v>
+      </c>
+      <c r="B104" t="s">
+        <v>424</v>
+      </c>
+      <c r="C104" t="s">
+        <v>425</v>
+      </c>
+      <c r="D104" t="s">
+        <v>426</v>
+      </c>
+      <c r="E104" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>427</v>
+      </c>
+      <c r="B105" t="s">
+        <v>428</v>
+      </c>
+      <c r="C105" t="s">
+        <v>429</v>
+      </c>
+      <c r="D105" t="s">
+        <v>430</v>
+      </c>
+      <c r="E105" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>432</v>
+      </c>
+      <c r="B106" t="s">
+        <v>433</v>
+      </c>
+      <c r="C106" t="s">
+        <v>434</v>
+      </c>
+      <c r="D106" t="s">
+        <v>435</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>436</v>
+      </c>
+      <c r="B107" t="s">
+        <v>437</v>
+      </c>
+      <c r="C107" t="s">
+        <v>438</v>
+      </c>
+      <c r="D107" t="s">
+        <v>439</v>
+      </c>
+      <c r="E107" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" t="s">
+        <v>442</v>
+      </c>
+      <c r="C108" t="s">
+        <v>443</v>
+      </c>
+      <c r="D108" t="s">
+        <v>444</v>
+      </c>
+      <c r="E108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>445</v>
+      </c>
+      <c r="B109" t="s">
+        <v>446</v>
+      </c>
+      <c r="C109" t="s">
+        <v>447</v>
+      </c>
+      <c r="D109" t="s">
+        <v>448</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>449</v>
+      </c>
+      <c r="B110" t="s">
+        <v>450</v>
+      </c>
+      <c r="C110" t="s">
+        <v>451</v>
+      </c>
+      <c r="D110" t="s">
         <v>274</v>
       </c>
-      <c r="D69" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>276</v>
-      </c>
-      <c r="B70" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" t="s">
-        <v>278</v>
-      </c>
-      <c r="D70" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>280</v>
-      </c>
-      <c r="B71" t="s">
-        <v>281</v>
-      </c>
-      <c r="C71" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>284</v>
-      </c>
-      <c r="B72" t="s">
-        <v>285</v>
-      </c>
-      <c r="C72" t="s">
-        <v>286</v>
-      </c>
-      <c r="D72" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>288</v>
-      </c>
-      <c r="B73" t="s">
-        <v>289</v>
-      </c>
-      <c r="C73" t="s">
-        <v>290</v>
-      </c>
-      <c r="D73" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>292</v>
-      </c>
-      <c r="B74" t="s">
-        <v>293</v>
-      </c>
-      <c r="C74" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>296</v>
-      </c>
-      <c r="B75" t="s">
-        <v>297</v>
-      </c>
-      <c r="C75" t="s">
-        <v>298</v>
-      </c>
-      <c r="D75" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>300</v>
-      </c>
-      <c r="B76" t="s">
-        <v>301</v>
-      </c>
-      <c r="C76" t="s">
-        <v>302</v>
-      </c>
-      <c r="D76" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>304</v>
-      </c>
-      <c r="B77" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>308</v>
-      </c>
-      <c r="B78" t="s">
-        <v>309</v>
-      </c>
-      <c r="C78" t="s">
-        <v>310</v>
-      </c>
-      <c r="D78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>312</v>
-      </c>
-      <c r="B79" t="s">
-        <v>313</v>
-      </c>
-      <c r="C79" t="s">
-        <v>314</v>
-      </c>
-      <c r="D79" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>316</v>
-      </c>
-      <c r="B80" t="s">
-        <v>317</v>
-      </c>
-      <c r="C80" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>320</v>
-      </c>
-      <c r="B81" t="s">
-        <v>321</v>
-      </c>
-      <c r="C81" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>324</v>
-      </c>
-      <c r="B82" t="s">
-        <v>325</v>
-      </c>
-      <c r="C82" t="s">
-        <v>326</v>
-      </c>
-      <c r="D82" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>328</v>
-      </c>
-      <c r="B83" t="s">
-        <v>329</v>
-      </c>
-      <c r="C83" t="s">
-        <v>330</v>
-      </c>
-      <c r="D83" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>332</v>
-      </c>
-      <c r="B84" t="s">
-        <v>333</v>
-      </c>
-      <c r="C84" t="s">
-        <v>334</v>
-      </c>
-      <c r="D84" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" t="s">
-        <v>337</v>
-      </c>
-      <c r="C85" t="s">
-        <v>338</v>
-      </c>
-      <c r="D85" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>340</v>
-      </c>
-      <c r="B86" t="s">
-        <v>341</v>
-      </c>
-      <c r="C86" t="s">
-        <v>342</v>
-      </c>
-      <c r="D86" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>344</v>
-      </c>
-      <c r="B87" t="s">
-        <v>345</v>
-      </c>
-      <c r="C87" t="s">
-        <v>346</v>
-      </c>
-      <c r="D87" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>348</v>
-      </c>
-      <c r="B88" t="s">
-        <v>349</v>
-      </c>
-      <c r="C88" t="s">
-        <v>350</v>
-      </c>
-      <c r="D88" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>352</v>
-      </c>
-      <c r="B89" t="s">
-        <v>353</v>
-      </c>
-      <c r="C89" t="s">
-        <v>354</v>
-      </c>
-      <c r="D89" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>356</v>
-      </c>
-      <c r="B90" t="s">
-        <v>357</v>
-      </c>
-      <c r="C90" t="s">
-        <v>358</v>
-      </c>
-      <c r="D90" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>360</v>
-      </c>
-      <c r="B91" t="s">
-        <v>361</v>
-      </c>
-      <c r="C91" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>364</v>
-      </c>
-      <c r="B92" t="s">
-        <v>365</v>
-      </c>
-      <c r="C92" t="s">
-        <v>366</v>
-      </c>
-      <c r="D92" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>368</v>
-      </c>
-      <c r="B93" t="s">
-        <v>369</v>
-      </c>
-      <c r="C93" t="s">
-        <v>370</v>
-      </c>
-      <c r="D93" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>372</v>
-      </c>
-      <c r="B94" t="s">
-        <v>373</v>
-      </c>
-      <c r="C94" t="s">
-        <v>374</v>
-      </c>
-      <c r="D94" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>376</v>
-      </c>
-      <c r="B95" t="s">
-        <v>377</v>
-      </c>
-      <c r="C95" t="s">
-        <v>378</v>
-      </c>
-      <c r="D95" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>380</v>
-      </c>
-      <c r="B96" t="s">
-        <v>381</v>
-      </c>
-      <c r="C96" t="s">
-        <v>382</v>
-      </c>
-      <c r="D96" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>384</v>
-      </c>
-      <c r="B97" t="s">
-        <v>385</v>
-      </c>
-      <c r="C97" t="s">
-        <v>386</v>
-      </c>
-      <c r="D97" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>388</v>
-      </c>
-      <c r="B98" t="s">
-        <v>389</v>
-      </c>
-      <c r="C98" t="s">
-        <v>390</v>
-      </c>
-      <c r="D98" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>392</v>
-      </c>
-      <c r="B99" t="s">
-        <v>393</v>
-      </c>
-      <c r="C99" t="s">
-        <v>394</v>
-      </c>
-      <c r="D99" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>396</v>
-      </c>
-      <c r="B100" t="s">
-        <v>397</v>
-      </c>
-      <c r="C100" t="s">
-        <v>398</v>
-      </c>
-      <c r="D100" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>400</v>
-      </c>
-      <c r="B101" t="s">
-        <v>401</v>
-      </c>
-      <c r="C101" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>404</v>
-      </c>
-      <c r="B102" t="s">
-        <v>405</v>
-      </c>
-      <c r="C102" t="s">
-        <v>406</v>
-      </c>
-      <c r="D102" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>408</v>
-      </c>
-      <c r="B103" t="s">
-        <v>409</v>
-      </c>
-      <c r="C103" t="s">
-        <v>410</v>
-      </c>
-      <c r="D103" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>412</v>
-      </c>
-      <c r="B104" t="s">
-        <v>413</v>
-      </c>
-      <c r="C104" t="s">
-        <v>414</v>
-      </c>
-      <c r="D104" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>416</v>
-      </c>
-      <c r="B105" t="s">
-        <v>417</v>
-      </c>
-      <c r="C105" t="s">
-        <v>418</v>
-      </c>
-      <c r="D105" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>420</v>
-      </c>
-      <c r="B106" t="s">
-        <v>421</v>
-      </c>
-      <c r="C106" t="s">
-        <v>422</v>
-      </c>
-      <c r="D106" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>424</v>
-      </c>
-      <c r="B107" t="s">
-        <v>425</v>
-      </c>
-      <c r="C107" t="s">
-        <v>426</v>
-      </c>
-      <c r="D107" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>428</v>
-      </c>
-      <c r="B108" t="s">
-        <v>429</v>
-      </c>
-      <c r="C108" t="s">
-        <v>430</v>
-      </c>
-      <c r="D108" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>432</v>
-      </c>
-      <c r="B109" t="s">
-        <v>433</v>
-      </c>
-      <c r="C109" t="s">
-        <v>434</v>
-      </c>
-      <c r="D109" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>436</v>
-      </c>
-      <c r="B110" t="s">
-        <v>437</v>
-      </c>
-      <c r="C110" t="s">
-        <v>438</v>
-      </c>
-      <c r="D110" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D111" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>455</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B112" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C112" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D112" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>459</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B113" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C113" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>463</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D114" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>467</v>
+      </c>
+      <c r="E114" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B115" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C115" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D115" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B116" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C116" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D116" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>475</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C117" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D117" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>479</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B118" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C118" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D118" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>483</v>
+      </c>
+      <c r="E118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B119" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C119" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D119" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>487</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B120" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C120" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D120" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>491</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B121" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C121" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D121" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>495</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B122" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C122" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D122" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>499</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B123" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="C123" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="D123" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>503</v>
+      </c>
+      <c r="E123" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B124" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C124" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D124" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B125" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C125" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D125" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>511</v>
+      </c>
+      <c r="E125" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B126" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C126" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D126" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>515</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C127" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="D127" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>519</v>
+      </c>
+      <c r="E127" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B128" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C128" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="D128" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>523</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B129" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C129" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="D129" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>527</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B130" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="C130" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="D130" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>531</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B131" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C131" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D131" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>535</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="B132" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C132" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D132" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>539</v>
+      </c>
+      <c r="E132" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B133" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C133" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D133" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>543</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B134" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="C134" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D134" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>547</v>
+      </c>
+      <c r="E134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B135" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C135" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D135" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>551</v>
+      </c>
+      <c r="E135" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B136" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C136" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D136" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>274</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="B137" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C137" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="D137" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>286</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B138" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="C138" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D138" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>561</v>
+      </c>
+      <c r="E138" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C139" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D139" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>565</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B140" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="C140" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="D140" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E140" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="B141" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C141" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="D141" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>574</v>
+      </c>
+      <c r="E141" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="B142" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C142" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D142" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>579</v>
+      </c>
+      <c r="E142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B143" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C143" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D143" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>583</v>
+      </c>
+      <c r="E143" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B144" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C144" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D144" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>587</v>
+      </c>
+      <c r="E144" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B145" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C145" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D145" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>591</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B146" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C146" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D146" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>595</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B147" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C147" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D147" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>599</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B148" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="C148" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D148" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>286</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="B149" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C149" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="D149" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>606</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="B150" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C150" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D150" t="s">
-        <v>599</v>
+        <v>610</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>611</v>
+      </c>
+      <c r="B151" t="s">
+        <v>612</v>
+      </c>
+      <c r="C151" t="s">
+        <v>613</v>
+      </c>
+      <c r="D151" t="s">
+        <v>614</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
